--- a/14.04.2025 - Сравнительный анализ финансовых систем Китая, Индии с 15 другими странами БРИКС, АСЕАН и Запада/Тест Тьюки.xlsx
+++ b/14.04.2025 - Сравнительный анализ финансовых систем Китая, Индии с 15 другими странами БРИКС, АСЕАН и Запада/Тест Тьюки.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klyukin\Documents\Python Scripts\phd\conferences\14.04.2025 - Сравнительный анализ финансовых систем Китая, Индии с 15 другими странами БРИСК, АСЕАН и Запада\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$J$1225</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="54">
   <si>
     <t>Factor</t>
   </si>
@@ -155,9 +150,6 @@
     <t>Сумма по полю 2 ^ meandiff</t>
   </si>
   <si>
-    <t>(несколько элементов)</t>
-  </si>
-  <si>
     <t>Normal 
 p -value level</t>
   </si>
@@ -189,14 +181,23 @@
   <si>
     <t>GREEN means we reject the null hypothesis and conclude that they are STATISTICALLY DIFFERENT and if RED - they are NOT statistically different.</t>
   </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -278,7 +279,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -289,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -299,7 +300,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="135" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,21 +313,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
@@ -362,49 +363,49 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -413,49 +414,49 @@
       <alignment textRotation="90" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
@@ -509,10 +510,10 @@
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -548,10 +549,10 @@
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -27031,7 +27032,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Сумма по полю p-adj" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Сумма по полю p-adj" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="13">
     <format dxfId="76">
@@ -28615,38 +28616,6 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="2" count="16">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
     <conditionalFormat priority="1">
       <pivotAreas count="15">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -28945,6 +28914,38 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="2" count="16">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
   </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -28956,7 +28957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Q20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -29128,7 +29129,7 @@
     <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Среднее по полю p-adj" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Среднее по полю p-adj" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="13">
     <format dxfId="0">
@@ -29238,9 +29239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -29278,9 +29279,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -29315,7 +29316,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -29350,7 +29351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -69990,7 +69991,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -70014,7 +70015,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -70044,7 +70045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="62.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -75811,7 +75812,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -75832,7 +75833,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -76564,7 +76565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -76577,7 +76578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -76598,7 +76599,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -81741,19 +81742,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="17" width="10.42578125" customWidth="1"/>
+    <col min="2" max="17" width="9.85546875" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -81762,7 +81763,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -81770,12 +81771,12 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="62.25" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>17</v>
@@ -82434,63 +82435,66 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>44</v>
-      </c>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:17" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="14" t="s">
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <f>(1/8)</f>
-        <v>0.125</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="15">
         <v>0.05</v>
       </c>
       <c r="D27" s="15">
-        <f>C27*A27</f>
+        <f>C27*A28</f>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <f>(1/8)</f>
+        <v>0.125</v>
+      </c>
       <c r="B28" s="13"/>
       <c r="C28" s="15">
         <v>0.1</v>
       </c>
       <c r="D28" s="15">
-        <f>C28*A27</f>
+        <f>C28*A28</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="4"/>
     </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:Q20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="6.0000000000000001E-3"/>
-        <cfvo type="num" val="1.2999999999999999E-2"/>
-        <cfvo type="num" val="0.02"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="$D$27"/>
+        <cfvo type="num" val="$D$28"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>

--- a/14.04.2025 - Сравнительный анализ финансовых систем Китая, Индии с 15 другими странами БРИКС, АСЕАН и Запада/Тест Тьюки.xlsx
+++ b/14.04.2025 - Сравнительный анализ финансовых систем Китая, Индии с 15 другими странами БРИКС, АСЕАН и Запада/Тест Тьюки.xlsx
@@ -239,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -317,12 +323,16 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="94">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
@@ -361,6 +371,73 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="180" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="45" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
@@ -27035,83 +27112,83 @@
     <dataField name="Сумма по полю p-adj" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="76">
+    <format dxfId="93">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="92">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -27318,83 +27395,83 @@
     <dataField name="Сумма по полю meandiff" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="63">
+    <format dxfId="80">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="79">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -28284,28 +28361,185 @@
     <dataField name="Сумма по полю 2 ^ meandiff" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="38">
-    <format dxfId="50">
+    <format dxfId="67">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="65">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="63">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="46">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
@@ -28448,163 +28682,6 @@
       </pivotArea>
     </format>
     <format dxfId="30">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="21">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="19">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="17">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="16">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -29131,87 +29208,97 @@
   <dataFields count="1">
     <dataField name="Среднее по полю p-adj" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="13">
-    <format dxfId="0">
+  <formats count="15">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -29528,7 +29615,7 @@
   <dimension ref="A1:J1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81748,13 +81835,14 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="17" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="17" width="8.5703125" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -81828,610 +81916,610 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="18">
         <v>0.338175</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="18">
         <v>0.23292499999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="18">
         <v>0.2971625</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="18">
         <v>0.1481625</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="18">
         <v>0.12525</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="18">
         <v>0.125</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="18">
         <v>0.468275</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="18">
         <v>0.24497499999999994</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="18">
         <v>0.52536249999999995</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="18">
         <v>0.13270000000000001</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="18">
         <v>0.10841249999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="18">
         <v>0.34311249999999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="18">
         <v>0.178425</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="18">
         <v>0.12733749999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="18">
         <v>0.27439999999999998</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="18">
         <v>0.1806625</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="18">
         <v>0.12082499999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="18">
         <v>0.47039999999999998</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="18">
         <v>9.6625000000000003E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="18">
         <v>0.26867499999999994</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="18">
         <v>0.23796249999999999</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="18">
         <v>0.13345000000000001</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="18">
         <v>0.23697499999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="18">
         <v>0.29491250000000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="18">
         <v>0.25032500000000002</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="18">
         <v>0.47391250000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="18">
         <v>0.125</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="18">
         <v>0.2255875</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="18">
         <v>4.2012499999999994E-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="18">
         <v>0.40567500000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="18">
         <v>0.46592499999999998</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="18">
         <v>0.11371249999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="18">
         <v>0.25672500000000004</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="18">
         <v>0.12242499999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="18">
         <v>0.50243750000000009</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="18">
         <v>0.33003749999999998</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="18">
         <v>5.6812500000000002E-2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="18">
         <v>0.14227500000000001</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="18">
         <v>0.21736250000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="18">
         <v>3.2499999999999999E-4</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="18">
         <v>0.12958749999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="18">
         <v>0.12529999999999999</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="18">
         <v>0.32280000000000003</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="18">
         <v>9.6624999999999992E-3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="18">
         <v>0.29494999999999999</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="18">
         <v>0.4241125</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="18">
         <v>0.396125</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="18">
         <v>0.2578375</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="18">
         <v>0.125</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="18">
         <v>0.743475</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="18">
         <v>0.49478750000000005</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="18">
         <v>0.2459625</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="18">
         <v>0.1459625</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="18">
         <v>0.24956249999999999</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="18">
         <v>1.4625E-3</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="18">
         <v>0.21556249999999999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="18">
         <v>0.29344999999999999</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="18">
         <v>0.2386375</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="18">
         <v>0.12948750000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="18">
         <v>0.120175</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="18">
         <v>0.72263750000000004</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="18">
         <v>0.29136249999999997</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="18">
         <v>0.12203749999999999</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="18">
         <v>0.17298750000000002</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="18">
         <v>0.24993750000000001</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="18">
         <v>0.36745000000000005</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="18">
         <v>9.4137499999999999E-2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="18">
         <v>0.23278750000000001</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="18">
         <v>0.24206250000000001</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="18">
         <v>0.30308750000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="18">
         <v>0.13459999999999997</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="18">
         <v>0.10778750000000001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="18">
         <v>0.17773749999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="18">
         <v>0.2402</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="18">
         <v>0.49007499999999998</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="18">
         <v>0.52382499999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="18">
         <v>0.10186249999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="18">
         <v>4.9087499999999999E-2</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="18">
         <v>0.25013750000000001</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="18">
         <v>0.3449875</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="18">
         <v>0.32807500000000006</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="18">
         <v>0.10526249999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="18">
         <v>0.48270000000000002</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="18">
         <v>0.24265</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="18">
         <v>0.36486249999999998</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="18">
         <v>0.23221249999999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="18">
         <v>0.37567499999999998</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="18">
         <v>0.59201250000000005</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="18">
         <v>0.38419999999999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="18">
         <v>0.27990000000000004</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="18">
         <v>0.38908749999999998</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="18">
         <v>0.1875375</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="18">
         <v>0.42159999999999997</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="18">
         <v>0.3631625</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="18">
         <v>0.1978125</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="18">
         <v>0.51973749999999996</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="18">
         <v>0.12692500000000001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="18">
         <v>0.33674999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="18">
         <v>0.34676249999999997</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="18">
         <v>0.51902500000000007</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="18">
         <v>0.44176250000000006</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="18">
         <v>0.34147499999999997</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="18">
         <v>0.18969999999999998</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="18">
         <v>0.47252499999999997</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="18">
         <v>0.38591249999999999</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="18">
         <v>0.230375</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="18">
         <v>0.40923749999999998</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="18">
         <v>0.13087499999999996</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="18">
         <v>2.3249999999999998E-3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="18">
         <v>0.20621249999999999</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="18">
         <v>0.45863749999999998</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="18">
         <v>0.12658749999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="18">
         <v>3.7749999999999997E-3</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="18">
         <v>0.249775</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="18">
         <v>0.24012500000000001</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="18">
         <v>0.12963749999999999</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="18">
         <v>0.36933749999999999</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="18">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="18">
         <v>0.2522625</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="18">
         <v>0.24286249999999998</v>
       </c>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="18">
         <v>3.6549999999999999E-2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="18">
         <v>0.12683749999999999</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="18">
         <v>0.3692375</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="18">
         <v>0.17327499999999998</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="18">
         <v>0.26201249999999998</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="18">
         <v>0.1912625</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="18">
         <v>0.375</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="18">
         <v>0.23503750000000001</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="18">
         <v>0.37682500000000002</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="18">
         <v>0.2389</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="18">
         <v>0.1129</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="18">
         <v>4.9249999999999997E-3</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="18">
         <v>0.154275</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="18">
         <v>0.14456250000000001</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="18">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="18">
         <v>0.125</v>
       </c>
     </row>
